--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5736110-24D9-4EA1-B92A-F3FFA12B4BB3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD87B788-6027-462F-A77A-D6A5CF137C2E}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FC1199EF-7FF8-430B-8E84-19CC5018D0AB}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64922D3A-7741-4993-A485-68E0D022C4E0}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1107,12 +1107,111 @@
         <v>1208</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B52">
+        <v>981</v>
+      </c>
+      <c r="C52">
+        <v>253</v>
+      </c>
+      <c r="D52">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B53">
+        <v>996</v>
+      </c>
+      <c r="C53">
+        <v>253</v>
+      </c>
+      <c r="D53">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B54">
+        <v>1018</v>
+      </c>
+      <c r="C54">
+        <v>256</v>
+      </c>
+      <c r="D54">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B55">
+        <v>1046</v>
+      </c>
+      <c r="C55">
+        <v>270</v>
+      </c>
+      <c r="D55">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B56">
+        <v>1084</v>
+      </c>
+      <c r="C56">
+        <v>274</v>
+      </c>
+      <c r="D56">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B57">
+        <v>1104</v>
+      </c>
+      <c r="C57">
+        <v>280</v>
+      </c>
+      <c r="D57">
+        <v>1384</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -1323,22 +1422,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E62931-03CD-4378-85D9-C017B672E38C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1355,21 +1456,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BD87B788-6027-462F-A77A-D6A5CF137C2E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{503C2FB0-46A6-474D-94F2-0EE371B5D93C}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FC1199EF-7FF8-430B-8E84-19CC5018D0AB}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64922D3A-7741-4993-A485-68E0D022C4E0}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1191,24 +1191,122 @@
         <v>1384</v>
       </c>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B58">
+        <v>1122</v>
+      </c>
+      <c r="C58">
+        <v>290</v>
+      </c>
+      <c r="D58">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B59">
+        <v>1148</v>
+      </c>
+      <c r="C59">
+        <v>293</v>
+      </c>
+      <c r="D59">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B60">
+        <v>1175</v>
+      </c>
+      <c r="C60">
+        <v>303</v>
+      </c>
+      <c r="D60">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B61">
+        <v>1205</v>
+      </c>
+      <c r="C61">
+        <v>313</v>
+      </c>
+      <c r="D61">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B62">
+        <v>1251</v>
+      </c>
+      <c r="C62">
+        <v>334</v>
+      </c>
+      <c r="D62">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B63">
+        <v>1309</v>
+      </c>
+      <c r="C63">
+        <v>350</v>
+      </c>
+      <c r="D63">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B64">
+        <v>1378</v>
+      </c>
+      <c r="C64">
+        <v>365</v>
+      </c>
+      <c r="D64">
+        <v>1743</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1423,18 +1521,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{503C2FB0-46A6-474D-94F2-0EE371B5D93C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C3944DF-872B-4C17-B744-23F4319ADCED}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FC1199EF-7FF8-430B-8E84-19CC5018D0AB}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64922D3A-7741-4993-A485-68E0D022C4E0}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1289,24 +1289,52 @@
         <v>1743</v>
       </c>
     </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B65">
+        <v>1440</v>
+      </c>
+      <c r="C65">
+        <v>379</v>
+      </c>
+      <c r="D65">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B66">
+        <v>1510</v>
+      </c>
+      <c r="C66">
+        <v>387</v>
+      </c>
+      <c r="D66">
+        <v>1897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1521,18 +1549,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C3944DF-872B-4C17-B744-23F4319ADCED}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AED6E519-F8DB-4337-AE29-6393141CA224}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FC1199EF-7FF8-430B-8E84-19CC5018D0AB}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64922D3A-7741-4993-A485-68E0D022C4E0}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,324 +997,450 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B44">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="C44">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D44">
-        <v>969</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B45">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="C45">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D45">
-        <v>1003</v>
+        <v>969</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B46">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="C46">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D46">
-        <v>1024</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B47">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="C47">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D47">
-        <v>1051</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B48">
-        <v>868</v>
+        <v>839</v>
       </c>
       <c r="C48">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D48">
-        <v>1087</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B49">
-        <v>898</v>
+        <v>868</v>
       </c>
       <c r="C49">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D49">
-        <v>1118</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B50">
-        <v>930</v>
+        <v>898</v>
       </c>
       <c r="C50">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D50">
-        <v>1170</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B51">
-        <v>957</v>
+        <v>930</v>
       </c>
       <c r="C51">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D51">
-        <v>1208</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B52">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="C52">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D52">
-        <v>1234</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B53">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="C53">
         <v>253</v>
       </c>
       <c r="D53">
-        <v>1249</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B54">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="C54">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D54">
-        <v>1274</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B55">
-        <v>1046</v>
+        <v>1018</v>
       </c>
       <c r="C55">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D55">
-        <v>1316</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B56">
-        <v>1084</v>
+        <v>1046</v>
       </c>
       <c r="C56">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D56">
-        <v>1358</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B57">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="C57">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D57">
-        <v>1384</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B58">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="C58">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D58">
-        <v>1412</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B59">
-        <v>1148</v>
+        <v>1122</v>
       </c>
       <c r="C59">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D59">
-        <v>1441</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B60">
-        <v>1175</v>
+        <v>1148</v>
       </c>
       <c r="C60">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D60">
-        <v>1478</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B61">
-        <v>1205</v>
+        <v>1175</v>
       </c>
       <c r="C61">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D61">
-        <v>1518</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B62">
-        <v>1251</v>
+        <v>1205</v>
       </c>
       <c r="C62">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D62">
-        <v>1585</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B63">
-        <v>1309</v>
+        <v>1251</v>
       </c>
       <c r="C63">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D63">
-        <v>1659</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B64">
-        <v>1378</v>
+        <v>1309</v>
       </c>
       <c r="C64">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D64">
-        <v>1743</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B65">
-        <v>1440</v>
+        <v>1378</v>
       </c>
       <c r="C65">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D65">
-        <v>1819</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B66">
+        <v>1440</v>
+      </c>
+      <c r="C66">
+        <v>379</v>
+      </c>
+      <c r="D66">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>44183</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>1510</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>387</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>1897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B68">
+        <v>1555</v>
+      </c>
+      <c r="C68">
+        <v>394</v>
+      </c>
+      <c r="D68">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B69">
+        <v>1618</v>
+      </c>
+      <c r="C69">
+        <v>397</v>
+      </c>
+      <c r="D69">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B70">
+        <v>1655</v>
+      </c>
+      <c r="C70">
+        <v>412</v>
+      </c>
+      <c r="D70">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B71">
+        <v>1686</v>
+      </c>
+      <c r="C71">
+        <v>420</v>
+      </c>
+      <c r="D71">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B72">
+        <v>1732</v>
+      </c>
+      <c r="C72">
+        <v>429</v>
+      </c>
+      <c r="D72">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B73">
+        <v>1773</v>
+      </c>
+      <c r="C73">
+        <v>458</v>
+      </c>
+      <c r="D73">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B74">
+        <v>1879</v>
+      </c>
+      <c r="C74">
+        <v>498</v>
+      </c>
+      <c r="D74">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B75">
+        <v>1983</v>
+      </c>
+      <c r="C75">
+        <v>501</v>
+      </c>
+      <c r="D75">
+        <v>2484</v>
       </c>
     </row>
   </sheetData>
@@ -1329,15 +1455,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -1548,6 +1665,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
@@ -1558,14 +1684,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E62931-03CD-4378-85D9-C017B672E38C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1582,4 +1700,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AED6E519-F8DB-4337-AE29-6393141CA224}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13DEE523-4DDB-4B91-931B-12CC29475B44}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FC1199EF-7FF8-430B-8E84-19CC5018D0AB}"/>
   </bookViews>
@@ -80,9 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64922D3A-7741-4993-A485-68E0D022C4E0}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1443,18 +1446,124 @@
         <v>2484</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B76">
+        <v>2065</v>
+      </c>
+      <c r="C76">
+        <v>507</v>
+      </c>
+      <c r="D76">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B77">
+        <v>2138</v>
+      </c>
+      <c r="C77">
+        <v>531</v>
+      </c>
+      <c r="D77">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B78">
+        <v>2250</v>
+      </c>
+      <c r="C78">
+        <v>569</v>
+      </c>
+      <c r="D78">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B79">
+        <v>2317</v>
+      </c>
+      <c r="C79">
+        <v>591</v>
+      </c>
+      <c r="D79">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B80">
+        <v>2521</v>
+      </c>
+      <c r="C80">
+        <v>610</v>
+      </c>
+      <c r="D80">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B81">
+        <v>2603</v>
+      </c>
+      <c r="C81">
+        <v>622</v>
+      </c>
+      <c r="D81">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B82">
+        <v>2657</v>
+      </c>
+      <c r="C82">
+        <v>627</v>
+      </c>
+      <c r="D82">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B83">
+        <v>2717</v>
+      </c>
+      <c r="C83">
+        <v>632</v>
+      </c>
+      <c r="D83">
+        <v>3349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -1665,6 +1774,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1675,15 +1790,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E62931-03CD-4378-85D9-C017B672E38C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1702,6 +1808,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
   <ds:schemaRefs>

--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13DEE523-4DDB-4B91-931B-12CC29475B44}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ADED0771-2F55-4084-9AF6-54A9EC765054}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FC1199EF-7FF8-430B-8E84-19CC5018D0AB}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64922D3A-7741-4993-A485-68E0D022C4E0}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1556,6 +1556,118 @@
       </c>
       <c r="D83">
         <v>3349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B84">
+        <v>2788</v>
+      </c>
+      <c r="C84">
+        <v>638</v>
+      </c>
+      <c r="D84">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B85">
+        <v>2836</v>
+      </c>
+      <c r="C85">
+        <v>644</v>
+      </c>
+      <c r="D85">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44205</v>
+      </c>
+      <c r="B86">
+        <v>2918</v>
+      </c>
+      <c r="C86">
+        <v>654</v>
+      </c>
+      <c r="D86">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44206</v>
+      </c>
+      <c r="B87">
+        <v>3007</v>
+      </c>
+      <c r="C87">
+        <v>663</v>
+      </c>
+      <c r="D87">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44207</v>
+      </c>
+      <c r="B88">
+        <v>3102</v>
+      </c>
+      <c r="C88">
+        <v>668</v>
+      </c>
+      <c r="D88">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44208</v>
+      </c>
+      <c r="B89">
+        <v>3163</v>
+      </c>
+      <c r="C89">
+        <v>676</v>
+      </c>
+      <c r="D89">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B90">
+        <v>3260</v>
+      </c>
+      <c r="C90">
+        <v>686</v>
+      </c>
+      <c r="D90">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44210</v>
+      </c>
+      <c r="B91">
+        <v>3362</v>
+      </c>
+      <c r="C91">
+        <v>702</v>
+      </c>
+      <c r="D91">
+        <v>4064</v>
       </c>
     </row>
   </sheetData>
@@ -1775,18 +1887,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1809,18 +1921,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{8BA07271-1E85-4450-8A80-D3FB9B4FD91C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ADED0771-2F55-4084-9AF6-54A9EC765054}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{FC1199EF-7FF8-430B-8E84-19CC5018D0AB}"/>
+    <workbookView xWindow="2210" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -88,7 +87,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,19 +398,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64922D3A-7741-4993-A485-68E0D022C4E0}">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44098</v>
       </c>
@@ -436,7 +433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44099</v>
       </c>
@@ -447,7 +444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44102</v>
       </c>
@@ -458,7 +455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44103</v>
       </c>
@@ -469,7 +466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44106</v>
       </c>
@@ -480,7 +477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44107</v>
       </c>
@@ -494,7 +491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44111</v>
       </c>
@@ -508,7 +505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44116</v>
       </c>
@@ -522,7 +519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44117</v>
       </c>
@@ -536,7 +533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44118</v>
       </c>
@@ -550,7 +547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44120</v>
       </c>
@@ -564,7 +561,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44121</v>
       </c>
@@ -578,7 +575,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44122</v>
       </c>
@@ -592,7 +589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44124</v>
       </c>
@@ -606,7 +603,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44125</v>
       </c>
@@ -620,7 +617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44126</v>
       </c>
@@ -634,7 +631,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44128</v>
       </c>
@@ -648,7 +645,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44129</v>
       </c>
@@ -662,7 +659,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44130</v>
       </c>
@@ -676,7 +673,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44131</v>
       </c>
@@ -690,7 +687,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44132</v>
       </c>
@@ -704,7 +701,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44133</v>
       </c>
@@ -718,7 +715,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44134</v>
       </c>
@@ -732,7 +729,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44137</v>
       </c>
@@ -746,7 +743,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44138</v>
       </c>
@@ -760,7 +757,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44139</v>
       </c>
@@ -774,7 +771,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44140</v>
       </c>
@@ -788,7 +785,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44141</v>
       </c>
@@ -802,7 +799,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44143</v>
       </c>
@@ -816,7 +813,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44144</v>
       </c>
@@ -830,7 +827,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44145</v>
       </c>
@@ -844,7 +841,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44146</v>
       </c>
@@ -858,7 +855,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44147</v>
       </c>
@@ -872,7 +869,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44148</v>
       </c>
@@ -886,7 +883,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44150</v>
       </c>
@@ -900,7 +897,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44151</v>
       </c>
@@ -914,7 +911,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44152</v>
       </c>
@@ -928,7 +925,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44153</v>
       </c>
@@ -942,7 +939,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44154</v>
       </c>
@@ -956,7 +953,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44155</v>
       </c>
@@ -970,7 +967,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44157</v>
       </c>
@@ -984,7 +981,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44158</v>
       </c>
@@ -998,7 +995,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44160</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44161</v>
       </c>
@@ -1026,7 +1023,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44162</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44163</v>
       </c>
@@ -1054,7 +1051,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44164</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44165</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44166</v>
       </c>
@@ -1096,7 +1093,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44167</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44168</v>
       </c>
@@ -1124,7 +1121,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44169</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44170</v>
       </c>
@@ -1152,7 +1149,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44171</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44172</v>
       </c>
@@ -1180,7 +1177,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44173</v>
       </c>
@@ -1194,7 +1191,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44174</v>
       </c>
@@ -1208,7 +1205,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44175</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44176</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44177</v>
       </c>
@@ -1250,7 +1247,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44178</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44179</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44180</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44181</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44182</v>
       </c>
@@ -1320,7 +1317,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44183</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44184</v>
       </c>
@@ -1348,7 +1345,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44185</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44186</v>
       </c>
@@ -1376,7 +1373,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44187</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44188</v>
       </c>
@@ -1404,7 +1401,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44191</v>
       </c>
@@ -1418,7 +1415,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44192</v>
       </c>
@@ -1432,7 +1429,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44193</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>44194</v>
       </c>
@@ -1460,7 +1457,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>44195</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>44196</v>
       </c>
@@ -1488,7 +1485,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>44198</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>44199</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>44200</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>44201</v>
       </c>
@@ -1544,7 +1541,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>44202</v>
       </c>
@@ -1558,8 +1555,8 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>44203</v>
       </c>
       <c r="B84">
@@ -1572,8 +1569,8 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>44204</v>
       </c>
       <c r="B85">
@@ -1586,8 +1583,8 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>44205</v>
       </c>
       <c r="B86">
@@ -1600,8 +1597,8 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>44206</v>
       </c>
       <c r="B87">
@@ -1614,8 +1611,8 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>44207</v>
       </c>
       <c r="B88">
@@ -1628,8 +1625,8 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>44208</v>
       </c>
       <c r="B89">
@@ -1642,8 +1639,8 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>44209</v>
       </c>
       <c r="B90">
@@ -1656,8 +1653,8 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>44210</v>
       </c>
       <c r="B91">
@@ -1668,6 +1665,62 @@
       </c>
       <c r="D91">
         <v>4064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B92">
+        <v>3417</v>
+      </c>
+      <c r="C92">
+        <v>706</v>
+      </c>
+      <c r="D92">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B93">
+        <v>3474</v>
+      </c>
+      <c r="C93">
+        <v>731</v>
+      </c>
+      <c r="D93">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B94">
+        <v>3526</v>
+      </c>
+      <c r="C94">
+        <v>752</v>
+      </c>
+      <c r="D94">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B95">
+        <v>3637</v>
+      </c>
+      <c r="C95">
+        <v>779</v>
+      </c>
+      <c r="D95">
+        <v>4416</v>
       </c>
     </row>
   </sheetData>
@@ -1676,6 +1729,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -1886,15 +1948,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1902,6 +1955,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E62931-03CD-4378-85D9-C017B672E38C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1920,19 +1981,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39EA57A4-CF41-4192-B57A-55B99FD11A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E17842-9B7C-4649-B236-529FBDA6159D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="edc73f9c-70d1-469b-b150-495011438330"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
+++ b/OpenData_Slovakia_Covid_DeathsCumulative.xlsx
@@ -1,32 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2210" yWindow="-120" windowWidth="28110" windowHeight="16440"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -35,28 +22,48 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Date</t>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t>DeathCovid</t>
+    <t xml:space="preserve">DeathCovid</t>
   </si>
   <si>
-    <t>DeathWithCovid</t>
+    <t xml:space="preserve">DeathWithCovid</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +75,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -76,1655 +83,1745 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0" customBuiltin="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E120" activeCellId="0" sqref="E120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>44098</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>44099</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>44102</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>44103</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>44106</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>44107</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>44111</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>44116</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>44117</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>44118</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>44120</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>44121</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>44122</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>44124</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>44125</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>44126</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>44128</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>44129</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>44130</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0" t="n">
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>44131</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0" t="n">
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>44132</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0" t="n">
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>44133</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0" t="n">
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>44134</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0" t="n">
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>44137</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0" t="n">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>44138</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0" t="n">
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>44139</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>44140</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0" t="n">
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>44141</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>351</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0" t="n">
         <v>478</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>44143</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>366</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0" t="n">
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>44144</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>390</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0" t="n">
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>44145</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>414</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0" t="n">
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>44146</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>464</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0" t="n">
         <v>628</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>44147</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>491</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0" t="n">
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>44148</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>510</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0" t="n">
         <v>677</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>44150</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>526</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0" t="n">
         <v>693</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>44151</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>557</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0" t="n">
         <v>728</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>44152</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>579</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>755</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>44153</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>614</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>44154</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>644</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>829</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>44155</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0" t="n">
         <v>859</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>44157</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>709</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0" t="n">
         <v>903</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>44158</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0" t="n">
         <v>928</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>44160</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>749</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0" t="n">
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>44161</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>771</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0" t="n">
         <v>969</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>44162</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>798</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0" t="n">
         <v>1003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>44163</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>816</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0" t="n">
         <v>1024</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>44164</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>839</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0" t="n">
         <v>1051</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>44165</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>868</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0" t="n">
         <v>1087</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>44166</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>898</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0" t="n">
         <v>1118</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>44167</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>930</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0" t="n">
         <v>1170</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>44168</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>957</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0" t="n">
         <v>1208</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>44169</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>981</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0" t="n">
         <v>1234</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>44170</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>996</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0" t="n">
         <v>1249</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>44171</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>1018</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0" t="n">
         <v>1274</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
         <v>44172</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>1046</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0" t="n">
         <v>1316</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
         <v>44173</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>1084</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0" t="n">
         <v>1358</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
         <v>44174</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>1104</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0" t="n">
         <v>1384</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>44175</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>1122</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0" t="n">
         <v>1412</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
         <v>44176</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>1148</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0" t="n">
         <v>1441</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
         <v>44177</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>1175</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0" t="n">
         <v>1478</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>44178</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>1205</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0" t="n">
         <v>1518</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>44179</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>1251</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0" t="n">
         <v>1585</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
         <v>44180</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>1309</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0" t="n">
         <v>1659</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>44181</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>1378</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>365</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0" t="n">
         <v>1743</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
         <v>44182</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>1440</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>379</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0" t="n">
         <v>1819</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
         <v>44183</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>1510</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0" t="n">
         <v>1897</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
         <v>44184</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>1555</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>394</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0" t="n">
         <v>1949</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
         <v>44185</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>1618</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>397</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0" t="n">
         <v>2015</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
         <v>44186</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>1655</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>412</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0" t="n">
         <v>2067</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
         <v>44187</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>1686</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>420</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0" t="n">
         <v>2106</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
         <v>44188</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>1732</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>429</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0" t="n">
         <v>2161</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
         <v>44191</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>1773</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>458</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0" t="n">
         <v>2231</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
         <v>44192</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>1879</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>498</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0" t="n">
         <v>2377</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
         <v>44193</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>1983</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>501</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0" t="n">
         <v>2484</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>44194</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>2065</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0" t="n">
         <v>2572</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
         <v>44195</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>2138</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>531</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0" t="n">
         <v>2669</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>2250</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>569</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0" t="n">
         <v>2819</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
         <v>44198</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>2317</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>591</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0" t="n">
         <v>2908</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
         <v>44199</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>2521</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>610</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0" t="n">
         <v>3131</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
         <v>44200</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>2603</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>622</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0" t="n">
         <v>3225</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>2657</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>627</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0" t="n">
         <v>3284</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
         <v>44202</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>2717</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0" t="n">
         <v>3349</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
         <v>44203</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>2788</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>638</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0" t="n">
         <v>3426</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>44204</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>2836</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>644</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0" t="n">
         <v>3480</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
         <v>44205</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>2918</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>654</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0" t="n">
         <v>3572</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
         <v>44206</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>3007</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>663</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0" t="n">
         <v>3670</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
         <v>44207</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>3102</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0" t="n">
         <v>3770</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
         <v>44208</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>3163</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>676</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0" t="n">
         <v>3839</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
         <v>44209</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>3260</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>686</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0" t="n">
         <v>3946</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
         <v>44210</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>3362</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>702</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0" t="n">
         <v>4064</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
         <v>44211</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>3417</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>706</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0" t="n">
         <v>4123</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
         <v>44212</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>3474</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>731</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0" t="n">
         <v>4205</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
         <v>44213</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>3526</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>752</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0" t="n">
         <v>4278</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
         <v>44214</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>3637</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>779</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0" t="n">
         <v>4416</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>44215</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>3737</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>786</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>3801</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>812</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>44217</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>3894</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>828</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>3965</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>851</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>4816</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>44219</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>4068</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>877</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>44220</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>4068</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>877</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>4260</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>904</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>44222</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>4361</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>927</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>4411</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>946</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>44224</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>4495</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>973</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>4565</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>996</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>44226</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>4642</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>4711</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>4784</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1075</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>44229</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>4889</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1082</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>4976</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1087</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>5050</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>1089</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>44232</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>1116</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>44233</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>5199</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1147</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>6346</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>44234</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>5271</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>5382</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>1189</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>44236</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>5502</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>1205</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>6707</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>44237</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>5629</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>5733</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>6954</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>5812</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>7036</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
